--- a/jupyter/RHEO/flow curv.xlsx
+++ b/jupyter/RHEO/flow curv.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680B87F6-C177-413C-AEA3-C960710CE787}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729503AA-8C68-4E77-905B-5F508D0DFEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLA" sheetId="1" r:id="rId1"/>
     <sheet name="lignin" sheetId="2" r:id="rId2"/>
     <sheet name="60-30-7" sheetId="3" r:id="rId3"/>
-    <sheet name="90-30-7" sheetId="4" r:id="rId4"/>
+    <sheet name="90-35-7" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -386,15 +386,15 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G63"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -434,7 +434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -457,7 +457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -480,7 +480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -503,7 +503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -549,7 +549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -572,7 +572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -595,7 +595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -641,7 +641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -664,7 +664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -687,7 +687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -710,7 +710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
       </c>
@@ -733,7 +733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -756,7 +756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -779,7 +779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -802,7 +802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -825,7 +825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -848,7 +848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -871,7 +871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20</v>
       </c>
@@ -894,7 +894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21</v>
       </c>
@@ -917,7 +917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>22</v>
       </c>
@@ -940,7 +940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
@@ -963,7 +963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
@@ -986,7 +986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>32</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>34</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>35</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>36</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>37</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>38</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>39</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>40</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>41</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>42</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>43</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>44</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>45</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>46</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>47</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>48</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>49</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>50</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>51</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>52</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>53</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>54</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>55</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>56</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>57</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>58</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>59</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>60</v>
       </c>
@@ -1824,12 +1824,12 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G63"/>
+      <selection activeCell="B15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>22</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>26</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>27</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>28</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>29</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>30</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>31</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>32</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>33</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>34</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>35</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>36</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>37</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>38</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>39</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>40</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>41</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>42</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>43</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>44</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>45</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>46</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>47</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>48</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>49</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>50</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>51</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>52</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>53</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>54</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>55</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>56</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>57</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>58</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>59</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>60</v>
       </c>
@@ -3259,12 +3259,12 @@
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="C14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>257600</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>240970</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>225430</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>210920</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>197370</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>184720</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>172900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>161860</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>151550</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>141920</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>132920</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>124510</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>116650</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>109310</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>102450</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>96040</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>90047</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>84445</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>79207</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>74311</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>69732</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>22</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>65451</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>61446</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>57701</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>54197</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>26</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>50919</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>27</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>47852</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>28</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>29</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>42295</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>30</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>39780</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>31</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>37425</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>32</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>35221</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>33</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>33156</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>34</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>31223</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>35</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>29411</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>36</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>27713</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>37</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>26123</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>38</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>24632</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>39</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>23234</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>40</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>21923</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>41</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>20694</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>42</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>19541</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>43</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>18459</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>44</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>17443</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>45</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>16490</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>46</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>15595</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>47</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>14754</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>48</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>13965</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>49</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>13223</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>50</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>12526</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>51</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>11870</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>52</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>11254</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>53</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>10674</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>54</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>10128</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>55</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>9614.7000000000007</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>56</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>9131.2000000000007</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>57</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>8675.7999999999993</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>58</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>8246.7000000000007</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>59</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>7842.4</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>60</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>7461.2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J64">
         <v>61</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>7101.7</v>
       </c>
     </row>
-    <row r="65" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J65">
         <v>62</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>6762.6</v>
       </c>
     </row>
-    <row r="66" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J66">
         <v>63</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>6442.6</v>
       </c>
     </row>
-    <row r="67" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J67">
         <v>64</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>6140.4</v>
       </c>
     </row>
-    <row r="68" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J68">
         <v>65</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>5855</v>
       </c>
     </row>
-    <row r="69" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J69">
         <v>66</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>5585.4</v>
       </c>
     </row>
-    <row r="70" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J70">
         <v>67</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>5330.6</v>
       </c>
     </row>
-    <row r="71" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J71">
         <v>68</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>5089.7</v>
       </c>
     </row>
-    <row r="72" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J72">
         <v>69</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>4861.8</v>
       </c>
     </row>
-    <row r="73" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J73">
         <v>70</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>4646.1000000000004</v>
       </c>
     </row>
-    <row r="74" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J74">
         <v>71</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>4441.8999999999996</v>
       </c>
     </row>
-    <row r="75" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J75">
         <v>72</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>4248.6000000000004</v>
       </c>
     </row>
-    <row r="76" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J76">
         <v>73</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>4065.4</v>
       </c>
     </row>
-    <row r="77" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J77">
         <v>74</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>3891.8</v>
       </c>
     </row>
-    <row r="78" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J78">
         <v>75</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>3727.1</v>
       </c>
     </row>
-    <row r="79" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J79">
         <v>76</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>3570.9</v>
       </c>
     </row>
-    <row r="80" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J80">
         <v>77</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>3422.7</v>
       </c>
     </row>
-    <row r="81" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J81">
         <v>78</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>3281.9</v>
       </c>
     </row>
-    <row r="82" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J82">
         <v>79</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>3148.2</v>
       </c>
     </row>
-    <row r="83" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J83">
         <v>80</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>3021.2</v>
       </c>
     </row>
-    <row r="84" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J84">
         <v>81</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>2900.4</v>
       </c>
     </row>
-    <row r="85" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J85">
         <v>82</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>2785.5</v>
       </c>
     </row>
-    <row r="86" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J86">
         <v>83</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>2676.1</v>
       </c>
     </row>
-    <row r="87" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J87">
         <v>84</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>2572.1</v>
       </c>
     </row>
-    <row r="88" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J88">
         <v>85</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>2472.9</v>
       </c>
     </row>
-    <row r="89" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J89">
         <v>86</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>2378.5</v>
       </c>
     </row>
-    <row r="90" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J90">
         <v>87</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>2288.4</v>
       </c>
     </row>
-    <row r="91" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J91">
         <v>88</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>2202.5</v>
       </c>
     </row>
-    <row r="92" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J92">
         <v>89</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>2120.6</v>
       </c>
     </row>
-    <row r="93" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J93">
         <v>90</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>2042.3</v>
       </c>
     </row>
-    <row r="94" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J94">
         <v>91</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>1967.6</v>
       </c>
     </row>
-    <row r="95" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J95">
         <v>92</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>1896.3</v>
       </c>
     </row>
-    <row r="96" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J96">
         <v>93</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>1828.1</v>
       </c>
     </row>
-    <row r="97" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J97">
         <v>94</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>1762.8</v>
       </c>
     </row>
-    <row r="98" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J98">
         <v>95</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>1700.4</v>
       </c>
     </row>
-    <row r="99" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J99">
         <v>96</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>1640.7</v>
       </c>
     </row>
-    <row r="100" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J100">
         <v>97</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>1583.5</v>
       </c>
     </row>
-    <row r="101" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J101">
         <v>98</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>1528.7</v>
       </c>
     </row>
-    <row r="102" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J102">
         <v>99</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>1476.2</v>
       </c>
     </row>
-    <row r="103" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J103">
         <v>100</v>
       </c>
@@ -6013,12 +6013,12 @@
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>40004</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>37367</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>34906</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>32610</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>30468</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>28469</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>26603</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>24862</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>23237</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>21720</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>20304</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>18983</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>17750</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>16599</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>15524</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>14521</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>13584</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>12710</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>11894</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>11132</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>10420</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>22</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>9755.1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>9134.4</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>8554.7000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>8013.2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>26</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>7507.5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>27</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>7035.1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>28</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>6593.7</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>29</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>6181.4</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>30</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>5796.1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>31</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>5436.1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>32</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>5099.7</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>33</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>4785.2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>34</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>4491.3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>35</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>4216.6000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>36</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>3959.7</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>37</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>3719.6</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>38</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>39</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>3285</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>40</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>3088.5</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>41</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>2904.8</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>42</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>2732.8</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>43</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>44</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>2421.4</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>45</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>2280.5</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>46</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>2148.5</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>47</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>48</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>1909.3</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>49</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>50</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>1699.4</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>51</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>1604.3</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>52</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>1515.2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>53</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>1431.6</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>54</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>1353.3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>55</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>1279.8</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>56</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>1210.9000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>57</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>1146.2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>58</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>1085.5</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>59</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>1028.5</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>60</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>975.04</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J64">
         <v>61</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>924.79</v>
       </c>
     </row>
-    <row r="65" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J65">
         <v>62</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>877.57</v>
       </c>
     </row>
-    <row r="66" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J66">
         <v>63</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>833.2</v>
       </c>
     </row>
-    <row r="67" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J67">
         <v>64</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>791.49</v>
       </c>
     </row>
-    <row r="68" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J68">
         <v>65</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>752.26</v>
       </c>
     </row>
-    <row r="69" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J69">
         <v>66</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>715.36</v>
       </c>
     </row>
-    <row r="70" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J70">
         <v>67</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>680.64</v>
       </c>
     </row>
-    <row r="71" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J71">
         <v>68</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>647.95000000000005</v>
       </c>
     </row>
-    <row r="72" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J72">
         <v>69</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>617.16999999999996</v>
       </c>
     </row>
-    <row r="73" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J73">
         <v>70</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>588.16999999999996</v>
       </c>
     </row>
-    <row r="74" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J74">
         <v>71</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>560.84</v>
       </c>
     </row>
-    <row r="75" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J75">
         <v>72</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>535.08000000000004</v>
       </c>
     </row>
-    <row r="76" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J76">
         <v>73</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>510.78</v>
       </c>
     </row>
-    <row r="77" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J77">
         <v>74</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>487.86</v>
       </c>
     </row>
-    <row r="78" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J78">
         <v>75</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>466.22</v>
       </c>
     </row>
-    <row r="79" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J79">
         <v>76</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>445.79</v>
       </c>
     </row>
-    <row r="80" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J80">
         <v>77</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>426.48</v>
       </c>
     </row>
-    <row r="81" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J81">
         <v>78</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>408.24</v>
       </c>
     </row>
-    <row r="82" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J82">
         <v>79</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>390.99</v>
       </c>
     </row>
-    <row r="83" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J83">
         <v>80</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>374.67</v>
       </c>
     </row>
-    <row r="84" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J84">
         <v>81</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>359.22</v>
       </c>
     </row>
-    <row r="85" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J85">
         <v>82</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>344.59</v>
       </c>
     </row>
-    <row r="86" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J86">
         <v>83</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>330.74</v>
       </c>
     </row>
-    <row r="87" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J87">
         <v>84</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>317.60000000000002</v>
       </c>
     </row>
-    <row r="88" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J88">
         <v>85</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>305.14999999999998</v>
       </c>
     </row>
-    <row r="89" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J89">
         <v>86</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>293.33</v>
       </c>
     </row>
-    <row r="90" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J90">
         <v>87</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>282.12</v>
       </c>
     </row>
-    <row r="91" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J91">
         <v>88</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>271.45999999999998</v>
       </c>
     </row>
-    <row r="92" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J92">
         <v>89</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>261.33999999999997</v>
       </c>
     </row>
-    <row r="93" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J93">
         <v>90</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>251.71</v>
       </c>
     </row>
-    <row r="94" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J94">
         <v>91</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>242.56</v>
       </c>
     </row>
-    <row r="95" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J95">
         <v>92</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>233.84</v>
       </c>
     </row>
-    <row r="96" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J96">
         <v>93</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>225.54</v>
       </c>
     </row>
-    <row r="97" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J97">
         <v>94</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>217.63</v>
       </c>
     </row>
-    <row r="98" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J98">
         <v>95</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>210.09</v>
       </c>
     </row>
-    <row r="99" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J99">
         <v>96</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>202.9</v>
       </c>
     </row>
-    <row r="100" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J100">
         <v>97</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>196.03</v>
       </c>
     </row>
-    <row r="101" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J101">
         <v>98</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>189.48</v>
       </c>
     </row>
-    <row r="102" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J102">
         <v>99</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>183.21</v>
       </c>
     </row>
-    <row r="103" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J103">
         <v>100</v>
       </c>

--- a/jupyter/RHEO/flow curv.xlsx
+++ b/jupyter/RHEO/flow curv.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729503AA-8C68-4E77-905B-5F508D0DFEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01C70D3-FC78-4C6F-854B-D1D8629708DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="19188" windowHeight="11448" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLA" sheetId="1" r:id="rId1"/>
@@ -1824,7 +1824,7 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:XFD1048576"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3259,7 +3259,7 @@
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="A1:XFD1048576"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6013,7 +6013,7 @@
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
